--- a/biology/Zoologie/Chelon_saliens/Chelon_saliens.xlsx
+++ b/biology/Zoologie/Chelon_saliens/Chelon_saliens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mulet sauteur
 Le Mulet sauteur, Chelon saliens (anciennement Liza saliens), est une espèce de poissons osseux marins de la famille des Mugilidae qui est présent surtout dans les eaux saumâtres de la Méditerranée.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Très semblable au mulet doré, ils sont très difficiles à distinguer, mais le mulet sauteur se différencie par :
 un corps très mince, beaucoup plus que les autres mulets
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition va du golfe de Gascogne au Nord, des Îles Canaries et d'Afrique australe au sud (partie Est de l'Atlantique) vers l'ensemble de la Méditerranée, mais pas en mer Noire.
 Il a été introduit avec succès en mer Caspienne.
